--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Check-list for Smoke Testing" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Suite for Smoke" sheetId="2" r:id="rId2"/>
+    <sheet name="Checklist for Smoke Testing (di" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Suite for Smoke (division)" sheetId="4" r:id="rId4"/>
+    <sheet name="Checklist for Critical Path Tes" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,15 +22,495 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
+  <si>
+    <t>Successful subtraction of numbers</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Sub module</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>RQ7</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>Opening the app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The app opens with the default value in the I/O field of 0;</t>
+  </si>
+  <si>
+    <t>SM2</t>
+  </si>
+  <si>
+    <t>SM1</t>
+  </si>
+  <si>
+    <t>RQ9.6</t>
+  </si>
+  <si>
+    <t>Closing the app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful closing of the app
+1. To close the application press button «x»;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The application window disappears;</t>
+  </si>
+  <si>
+    <t>SM3</t>
+  </si>
+  <si>
+    <t>Addition of numbers</t>
+  </si>
+  <si>
+    <t>Simple mode</t>
+  </si>
+  <si>
+    <t>RQ9.2.1, RQ22.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful opening of the app 
+Preconditions: to have a downloaded file called "Калькулятор" in exe format 
+1.  Double-click on the calculator executable file;
+</t>
+  </si>
+  <si>
+    <t>Successful addition of numbers
+1. Click '4' on the display of the app;
+2. Click '+' button
+3. Click '7' button
+4. Click '=' button</t>
+  </si>
+  <si>
+    <t>SM4</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoke </t>
+  </si>
+  <si>
+    <t>Subtraction of numbers</t>
+  </si>
+  <si>
+    <t>RQ9.2.2, RQ22.2</t>
+  </si>
+  <si>
+    <t>SM5</t>
+  </si>
+  <si>
+    <t>RQ9.2.3, RQ22.3</t>
+  </si>
+  <si>
+    <t>Multiplication of numbers</t>
+  </si>
+  <si>
+    <t>Successful multiplication of numbers
+1. Click '3' on the display of the app;
+2. Click '*' button
+3. Click '9' button
+4. Click '=' button</t>
+  </si>
+  <si>
+    <t>SM6</t>
+  </si>
+  <si>
+    <t>RQ9.2.3, RQ22.4</t>
+  </si>
+  <si>
+    <t>Division of numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. '4' is displayed in I/O field;
+2. '4+' is displayed in I/O field; 
+3. '4+7' is displayed in I/O field;
+4. '11' is displayed in I/O field;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. '3' is displayed in I/O field;
+2. '3*' is displayed in I/O field; 
+3. '3*9' is displayed in I/O field;
+4. '27' is displayed in I/O field;</t>
+  </si>
+  <si>
+    <t>Squaring of numbers</t>
+  </si>
+  <si>
+    <t>Change of modes</t>
+  </si>
+  <si>
+    <t>Scientific mode</t>
+  </si>
+  <si>
+    <t>RQ2, RQ11</t>
+  </si>
+  <si>
+    <t>SM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The option of selecting 'Обычный' and 'Инженерный' modes is displayed
+2. 'x2' and '√' buttons appear</t>
+  </si>
+  <si>
+    <t>Successful change of modes
+1. Press 'Выбор' button
+2. Click on 'Инженерный'</t>
+  </si>
+  <si>
+    <t>SM8</t>
+  </si>
+  <si>
+    <t>RQ9.3.1, RQ24.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. '6' is displayed in I/O field;
+2. '36' is displayed in I/O field; </t>
+  </si>
+  <si>
+    <t>SM9</t>
+  </si>
+  <si>
+    <t>Root extraction of numbers</t>
+  </si>
+  <si>
+    <t>RQ9.3.2, RQ24.2</t>
+  </si>
+  <si>
+    <t>Successful squaring of numbers
+1. Click '6' on the display of the app
+2. Click 'x2' button</t>
+  </si>
+  <si>
+    <t>SM10</t>
+  </si>
+  <si>
+    <t>Access to user guide</t>
+  </si>
+  <si>
+    <t>RQ9.4.2</t>
+  </si>
+  <si>
+    <t>User guide</t>
+  </si>
+  <si>
+    <t>Successful access to user guide
+1. Click 'О программе' on the display of the app;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. User guide is opened</t>
+  </si>
+  <si>
+    <t>RQ6</t>
+  </si>
+  <si>
+    <t>Removal</t>
+  </si>
+  <si>
+    <t>Successful removal of data in I/O field
+1. Put any value in I/O field
+2. Click 'C' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The value is displayed in I/O field
+2. '0' is displayed </t>
+  </si>
+  <si>
+    <t>SM11</t>
+  </si>
+  <si>
+    <t>RQ9.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last character deletion </t>
+  </si>
+  <si>
+    <t>Checklist for Smoke Testing (division)</t>
+  </si>
+  <si>
+    <t>Opening of the app</t>
+  </si>
+  <si>
+    <t>Closing of the app</t>
+  </si>
+  <si>
+    <t>Removal of numbers</t>
+  </si>
+  <si>
+    <t>Division of negative numbers</t>
+  </si>
+  <si>
+    <t>Division by Zero</t>
+  </si>
+  <si>
+    <t>Division of fractional numbers</t>
+  </si>
+  <si>
+    <t>SMD1</t>
+  </si>
+  <si>
+    <t>SMD2</t>
+  </si>
+  <si>
+    <t>SMD3</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Fractional Numbers</t>
+  </si>
+  <si>
+    <t>Negative numbers</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Division by Zero
+1. Put '6' on the display of the app;
+2. Click '/' button
+3. Put '0' 
+4. Click '=' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. '6' is displayed in I/O field;
+2. '6/' is displayed in I/O field; 
+3. '6/0' is displayed in I/O field;
+4. '0' is displayed in I/O field;</t>
+  </si>
+  <si>
+    <t>Division of an empty field</t>
+  </si>
+  <si>
+    <t>Division of 20 symbol numbers</t>
+  </si>
+  <si>
+    <t>Successful division of fractional numbers
+1. Click '6' on the display of the app;
+2. Click ','
+3. Click '9'
+4. Click '8'
+5. Click '/' button
+6. Click '2' 
+7. Click ','
+8. Click '1'
+9. Click '=' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. '6' is displayed in I/O field;
+2. '6,' is displayed in I/O field;
+3. '6,9' is displayed in I/O field;
+4. '6,98' is displayed in I/O field;
+5. '6,98/' is displayed in I/O field;
+6. '6,98/2' is displayed in I/O field;
+7. '6,98/2,' is displayed in I/O field;
+8. '6,98/2,1' is displayed in I/O field;
+9. '3,32' is displayed in I/O field;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. '6' is displayed in I/O field;
+2. '60' is displayed in I/O field;
+2. '-60' is dispayed in I/O field
+2. '-60/' is displayed in I/O field; 
+3. '-60/2' is displayed in I/O field;
+4. '-30' is displayed in I/O field;</t>
+  </si>
+  <si>
+    <t>Successful division of negative numbers
+1. Click '6' on the display of the app;
+2. Click '0'
+2. Click '+/-' button
+2. Click '/' button
+3. Click '2' 
+4. Click '=' button</t>
+  </si>
+  <si>
+    <t>Successful subtraction of numbers
+1. Put '1' on the display of the app;
+2. Click '0'
+3. Click '-' button
+4. Click '5' button
+5. Click '=' button</t>
+  </si>
+  <si>
+    <t>1. '1' is displayed in I/O field;
+2. '10' is displayed in I/O field;
+3. '10-' is displayed in I/O field; 
+4. '10-5' is displayed in I/O field;
+5. '5' is displayed in I/O field;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. '5' id displayed in I/O field;
+2. '54' is displayed in I/O field;
+3. '54/' is displayed in I/O field; 
+4. '54/6' is displayed in I/O field;
+5. '9' is displayed in I/O field;</t>
+  </si>
+  <si>
+    <t>Successful division of numbers
+1. Put '5' on the display of the app;
+2. Click '4'
+3. Click '/' button
+4. Click '6' button
+5. Click '=' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. '8' is displayed in I/O field;
+2. '81' is displayed in I/O field;
+3. '9' is displayed in I/O field; </t>
+  </si>
+  <si>
+    <t>Successful root extraction of numbers
+1. Click '8' on the display of the app;
+2. Click '1'
+3. Click '√' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. '684' is displayed
+2. '68' is displayed
+3. '684' is displayed
+4. '68' is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful last character deletion 
+1. Put '684' in I/O field
+2. Click '8'
+3. Click '4'
+4. Click '&lt;' </t>
+  </si>
+  <si>
+    <t>Division of two negative numbers</t>
+  </si>
+  <si>
+    <t>Division of 0 and another number</t>
+  </si>
+  <si>
+    <t>Division of  a smaller number by a larger one</t>
+  </si>
+  <si>
+    <t>Division of integer by fractional number</t>
+  </si>
+  <si>
+    <t>Division of fractional by integer</t>
+  </si>
+  <si>
+    <t>Division of two Zero</t>
+  </si>
+  <si>
+    <t>Division of the same numbers</t>
+  </si>
+  <si>
+    <t>Division of several numbers in a row</t>
+  </si>
+  <si>
+    <t>Division of 1 by another numbers</t>
+  </si>
+  <si>
+    <t>Division of any number by 1</t>
+  </si>
+  <si>
+    <t>Divide more than 20 symbols</t>
+  </si>
+  <si>
+    <t>Divide empty field and click '='</t>
+  </si>
+  <si>
+    <t>RQ22.4</t>
+  </si>
+  <si>
+    <t>Checklist for Critical Path Testing (division)</t>
+  </si>
+  <si>
+    <t>Divide the previous total calculation</t>
+  </si>
+  <si>
+    <t>Removal of '/' during the calculation</t>
+  </si>
+  <si>
+    <t>Check-list for Smoke Testing</t>
+  </si>
+  <si>
+    <t>Clicking several times '=' after the division</t>
+  </si>
+  <si>
+    <t>Division of positive numbers</t>
+  </si>
+  <si>
+    <t>Changing '+', '-', '*' to '/'</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +521,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -45,15 +529,362 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -85,7 +916,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +928,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -109,12 +940,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +975,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,9 +1027,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -323,7 +1188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -331,12 +1196,727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="32"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
+    <col min="7" max="7" width="40.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="93" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="93" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="62" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F14" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="32.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>